--- a/韦小龙个人网站开发文档.xlsx
+++ b/韦小龙个人网站开发文档.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据库" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="储存过程" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t> WXL_Article</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(max)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文章内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,39 +142,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.文章分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WXL_ArticleType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LayerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>nvarchar(220)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long_ArticleToPage</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章列表分页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -562,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -570,13 +564,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -595,10 +589,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -614,122 +608,85 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="D14" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -741,12 +698,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/韦小龙个人网站开发文档.xlsx
+++ b/韦小龙个人网站开发文档.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="数据库" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t> WXL_Article</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,134 @@
   </si>
   <si>
     <t>文章列表分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isdel</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除(0否,1是)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleId2</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>文章ID2，关联标签表(WXL_Tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文章标签</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WXL_Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TagId</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID(自增长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TagName</t>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDel</t>
+  </si>
+  <si>
+    <t>ArticleType1</t>
+  </si>
+  <si>
+    <t>文章类型1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WXL_Users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleId2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +328,34 @@
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,9 +378,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -526,29 +685,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -562,7 +721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -573,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -584,7 +743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -595,7 +754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -606,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -620,7 +779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -631,7 +790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -642,7 +801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -653,7 +812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -664,7 +823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -678,7 +837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -687,6 +846,147 @@
       </c>
       <c r="D14" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -700,17 +1000,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -718,7 +1018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -739,7 +1039,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
